--- a/仕様書/ステージ完全版.xlsx
+++ b/仕様書/ステージ完全版.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatey\Desktop\チーム制作です\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22560" windowHeight="11100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用紙1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="14">
   <si>
     <t>小</t>
   </si>
@@ -58,6 +58,14 @@
   <si>
     <t>小</t>
     <phoneticPr fontId="1" alignment="center"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -536,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E842AC-7898-274A-A2A2-1D7DA93AE83E}">
   <dimension ref="A1:CM20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="CM15" sqref="CM15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1999,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D288F-1DA3-A742-8591-BFB30ABCF101}">
   <dimension ref="A1:CJ12"/>
   <sheetViews>
-    <sheetView topLeftCell="CF1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2401,7 +2409,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -2503,7 +2511,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>0</v>
@@ -3533,6 +3541,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3540,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3A295D-144F-DC44-BFCD-B0EB1FA2AF72}">
   <dimension ref="A1:CK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
